--- a/BssidProtokol.xlsx
+++ b/BssidProtokol.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="70">
   <si>
     <t>bssid</t>
   </si>
@@ -564,15 +564,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CK8"/>
+  <dimension ref="A1:CK11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="13.28515625" bestFit="1" customWidth="1"/>
@@ -1828,6 +1829,316 @@
       </c>
       <c r="AY8">
         <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
+      </c>
+      <c r="J10">
+        <v>9</v>
+      </c>
+      <c r="K10">
+        <v>10</v>
+      </c>
+      <c r="L10">
+        <v>11</v>
+      </c>
+      <c r="M10">
+        <v>12</v>
+      </c>
+      <c r="N10">
+        <v>13</v>
+      </c>
+      <c r="O10">
+        <v>14</v>
+      </c>
+      <c r="P10">
+        <v>15</v>
+      </c>
+      <c r="Q10">
+        <v>16</v>
+      </c>
+      <c r="R10">
+        <v>17</v>
+      </c>
+      <c r="S10">
+        <v>18</v>
+      </c>
+      <c r="T10">
+        <v>19</v>
+      </c>
+      <c r="U10">
+        <v>20</v>
+      </c>
+      <c r="V10">
+        <v>21</v>
+      </c>
+      <c r="W10">
+        <v>22</v>
+      </c>
+      <c r="X10">
+        <v>23</v>
+      </c>
+      <c r="Y10">
+        <v>24</v>
+      </c>
+      <c r="Z10">
+        <v>25</v>
+      </c>
+      <c r="AA10">
+        <v>26</v>
+      </c>
+      <c r="AB10">
+        <v>27</v>
+      </c>
+      <c r="AC10">
+        <v>28</v>
+      </c>
+      <c r="AD10">
+        <v>29</v>
+      </c>
+      <c r="AE10">
+        <v>30</v>
+      </c>
+      <c r="AF10">
+        <v>31</v>
+      </c>
+      <c r="AG10">
+        <v>32</v>
+      </c>
+      <c r="AH10">
+        <v>33</v>
+      </c>
+      <c r="AI10">
+        <v>34</v>
+      </c>
+      <c r="AJ10">
+        <v>35</v>
+      </c>
+      <c r="AK10">
+        <v>36</v>
+      </c>
+      <c r="AL10">
+        <v>37</v>
+      </c>
+      <c r="AM10">
+        <v>38</v>
+      </c>
+      <c r="AN10">
+        <v>39</v>
+      </c>
+      <c r="AO10">
+        <v>40</v>
+      </c>
+      <c r="AP10">
+        <v>41</v>
+      </c>
+      <c r="AQ10">
+        <v>42</v>
+      </c>
+      <c r="AR10">
+        <v>43</v>
+      </c>
+      <c r="AS10">
+        <v>44</v>
+      </c>
+      <c r="AT10">
+        <v>45</v>
+      </c>
+      <c r="AU10">
+        <v>46</v>
+      </c>
+      <c r="AV10">
+        <v>47</v>
+      </c>
+      <c r="AW10">
+        <v>48</v>
+      </c>
+      <c r="AX10">
+        <v>49</v>
+      </c>
+      <c r="AY10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" t="s">
+        <v>13</v>
+      </c>
+      <c r="O11" t="s">
+        <v>14</v>
+      </c>
+      <c r="P11" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>16</v>
+      </c>
+      <c r="R11" t="s">
+        <v>17</v>
+      </c>
+      <c r="S11" t="s">
+        <v>18</v>
+      </c>
+      <c r="T11" t="s">
+        <v>19</v>
+      </c>
+      <c r="U11" t="s">
+        <v>20</v>
+      </c>
+      <c r="V11" t="s">
+        <v>21</v>
+      </c>
+      <c r="W11" t="s">
+        <v>22</v>
+      </c>
+      <c r="X11" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>55</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/BssidProtokol.xlsx
+++ b/BssidProtokol.xlsx
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CK11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
+      <selection activeCell="AR11" sqref="AR11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,6 +579,7 @@
     <col min="32" max="32" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="14" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="17.28515625" bestFit="1" customWidth="1"/>
